--- a/total_solutions.xlsx
+++ b/total_solutions.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
+  <webPublishing allowPng="1" targetScreenSize="1024x768" codePage="65001"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -536,27 +537,27 @@
         <v>21.166666666666515</v>
       </c>
       <c r="L3">
-        <f>A3/$A$2</f>
+        <f t="shared" ref="L3:L29" si="3">A3/$A$2</f>
         <v>1.0583333333333333</v>
       </c>
       <c r="O3">
         <v>4900</v>
       </c>
       <c r="P3">
-        <f t="shared" ref="P3:P29" si="3">O3-$N$2</f>
+        <f t="shared" ref="P3:P29" si="4">O3-$N$2</f>
         <v>4100</v>
       </c>
       <c r="Q3">
         <v>0.35</v>
       </c>
       <c r="R3">
-        <f t="shared" ref="R3:R29" si="4">P3*Q3</f>
+        <f t="shared" ref="R3:R29" si="5">P3*Q3</f>
         <v>1435</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4">
-        <f t="shared" ref="A4:A29" si="5">A3+A3*$C$2</f>
+        <f t="shared" ref="A4:A29" si="6">A3+A3*$C$2</f>
         <v>2240.1388888888887</v>
       </c>
       <c r="B4">
@@ -575,27 +576,27 @@
         <v>22.40138888888896</v>
       </c>
       <c r="L4">
-        <f>A4/$A$2</f>
+        <f t="shared" si="3"/>
         <v>1.1200694444444443</v>
       </c>
       <c r="O4">
         <v>5200</v>
       </c>
       <c r="P4">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4400</v>
       </c>
       <c r="Q4">
         <v>0.35</v>
       </c>
       <c r="R4">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1540</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2370.8136574074074</v>
       </c>
       <c r="B5">
@@ -614,27 +615,27 @@
         <v>23.70813657407416</v>
       </c>
       <c r="L5">
-        <f>A5/$A$2</f>
+        <f t="shared" si="3"/>
         <v>1.1854068287037036</v>
       </c>
       <c r="O5">
         <v>5200</v>
       </c>
       <c r="P5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4400</v>
       </c>
       <c r="Q5">
         <v>0.35</v>
       </c>
       <c r="R5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1540</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2509.1111207561726</v>
       </c>
       <c r="B6">
@@ -653,27 +654,27 @@
         <v>25.09111120756188</v>
       </c>
       <c r="L6">
-        <f>A6/$A$2</f>
+        <f t="shared" si="3"/>
         <v>1.2545555603780862</v>
       </c>
       <c r="O6">
         <v>3800</v>
       </c>
       <c r="P6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3000</v>
       </c>
       <c r="Q6">
         <v>0.35</v>
       </c>
       <c r="R6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1050</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2655.475936133616</v>
       </c>
       <c r="B7">
@@ -692,27 +693,27 @@
         <v>26.55475936133621</v>
       </c>
       <c r="L7">
-        <f>A7/$A$2</f>
+        <f t="shared" si="3"/>
         <v>1.327737968066808</v>
       </c>
       <c r="O7">
         <v>4900</v>
       </c>
       <c r="P7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4100</v>
       </c>
       <c r="Q7">
         <v>0.35</v>
       </c>
       <c r="R7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1435</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2810.3786990747435</v>
       </c>
       <c r="B8">
@@ -731,27 +732,27 @@
         <v>28.103786990747267</v>
       </c>
       <c r="L8">
-        <f>A8/$A$2</f>
+        <f t="shared" si="3"/>
         <v>1.4051893495373717</v>
       </c>
       <c r="O8">
         <v>5200</v>
       </c>
       <c r="P8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4400</v>
       </c>
       <c r="Q8">
         <v>0.35</v>
       </c>
       <c r="R8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1540</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2974.3174565207701</v>
       </c>
       <c r="B9">
@@ -770,27 +771,27 @@
         <v>29.743174565207937</v>
       </c>
       <c r="L9">
-        <f>A9/$A$2</f>
+        <f t="shared" si="3"/>
         <v>1.4871587282603851</v>
       </c>
       <c r="O9">
         <v>5200</v>
       </c>
       <c r="P9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4400</v>
       </c>
       <c r="Q9">
         <v>0.35</v>
       </c>
       <c r="R9">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1540</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3147.8193081511481</v>
       </c>
       <c r="B10">
@@ -809,27 +810,27 @@
         <v>31.478193081511563</v>
       </c>
       <c r="L10">
-        <f>A10/$A$2</f>
+        <f t="shared" si="3"/>
         <v>1.5739096540755741</v>
       </c>
       <c r="O10">
         <v>3800</v>
       </c>
       <c r="P10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3000</v>
       </c>
       <c r="Q10">
         <v>0.35</v>
       </c>
       <c r="R10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1050</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3331.4421011266318</v>
       </c>
       <c r="B11">
@@ -848,27 +849,27 @@
         <v>33.314421011266404</v>
       </c>
       <c r="L11">
-        <f>A11/$A$2</f>
+        <f t="shared" si="3"/>
         <v>1.665721050563316</v>
       </c>
       <c r="O11">
         <v>4900</v>
       </c>
       <c r="P11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4100</v>
       </c>
       <c r="Q11">
         <v>0.35</v>
       </c>
       <c r="R11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1435</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3525.7762236923518</v>
       </c>
       <c r="B12">
@@ -887,27 +888,27 @@
         <v>35.25776223692327</v>
       </c>
       <c r="L12">
-        <f>A12/$A$2</f>
+        <f t="shared" si="3"/>
         <v>1.7628881118461759</v>
       </c>
       <c r="O12">
         <v>5200</v>
       </c>
       <c r="P12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4400</v>
       </c>
       <c r="Q12">
         <v>0.35</v>
       </c>
       <c r="R12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1540</v>
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3731.4465034077389</v>
       </c>
       <c r="B13">
@@ -926,34 +927,34 @@
         <v>37.314465034077557</v>
       </c>
       <c r="L13">
-        <f>A13/$A$2</f>
+        <f t="shared" si="3"/>
         <v>1.8657232517038695</v>
       </c>
       <c r="O13">
         <v>5200</v>
       </c>
       <c r="P13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4400</v>
       </c>
       <c r="Q13">
         <v>0.35</v>
       </c>
       <c r="R13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1540</v>
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3949.1142161065236</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
       <c r="H14">
-        <f t="shared" ref="H14:H29" si="6">A14/B14</f>
+        <f t="shared" ref="H14:H29" si="7">A14/B14</f>
         <v>303.77801662357876</v>
       </c>
       <c r="I14">
@@ -965,34 +966,34 @@
         <v>39.491142161065284</v>
       </c>
       <c r="L14">
-        <f>A14/$A$2</f>
+        <f t="shared" si="3"/>
         <v>1.9745571080532618</v>
       </c>
       <c r="O14">
         <v>3800</v>
       </c>
       <c r="P14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3000</v>
       </c>
       <c r="Q14">
         <v>0.35</v>
       </c>
       <c r="R14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1050</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4179.4792120460706</v>
       </c>
       <c r="B15">
         <v>14</v>
       </c>
       <c r="H15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>298.53422943186217</v>
       </c>
       <c r="I15">
@@ -1004,34 +1005,34 @@
         <v>41.794792120460784</v>
       </c>
       <c r="L15">
-        <f>A15/$A$2</f>
+        <f t="shared" si="3"/>
         <v>2.0897396060230351</v>
       </c>
       <c r="O15">
         <v>4900</v>
       </c>
       <c r="P15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4100</v>
       </c>
       <c r="Q15">
         <v>0.35</v>
       </c>
       <c r="R15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1435</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4423.2821660820919</v>
       </c>
       <c r="B16">
         <v>15</v>
       </c>
       <c r="H16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>294.88547773880612</v>
       </c>
       <c r="I16">
@@ -1043,34 +1044,34 @@
         <v>44.232821660821173</v>
       </c>
       <c r="L16">
-        <f>A16/$A$2</f>
+        <f t="shared" si="3"/>
         <v>2.2116410830410458</v>
       </c>
       <c r="O16">
         <v>5200</v>
       </c>
       <c r="P16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4400</v>
       </c>
       <c r="Q16">
         <v>0.35</v>
       </c>
       <c r="R16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1540</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4681.3069591035473</v>
       </c>
       <c r="B17">
         <v>16</v>
       </c>
       <c r="H17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>292.58168494397171</v>
       </c>
       <c r="I17">
@@ -1082,34 +1083,34 @@
         <v>46.813069591035855</v>
       </c>
       <c r="L17">
-        <f>A17/$A$2</f>
+        <f t="shared" si="3"/>
         <v>2.3406534795517735</v>
       </c>
       <c r="O17">
         <v>5200</v>
       </c>
       <c r="P17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4400</v>
       </c>
       <c r="Q17">
         <v>0.35</v>
       </c>
       <c r="R17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1540</v>
       </c>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4954.3831983845876</v>
       </c>
       <c r="B18">
         <v>17</v>
       </c>
       <c r="H18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>291.4343057873287</v>
       </c>
       <c r="I18">
@@ -1121,34 +1122,34 @@
         <v>49.543831983845791</v>
       </c>
       <c r="L18">
-        <f>A18/$A$2</f>
+        <f t="shared" si="3"/>
         <v>2.4771915991922939</v>
       </c>
       <c r="O18">
         <v>3800</v>
       </c>
       <c r="P18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3000</v>
       </c>
       <c r="Q18">
         <v>0.35</v>
       </c>
       <c r="R18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1050</v>
       </c>
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5243.3888849570221</v>
       </c>
       <c r="B19">
         <v>18</v>
       </c>
       <c r="H19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>291.29938249761233</v>
       </c>
       <c r="I19">
@@ -1160,34 +1161,34 @@
         <v>52.43388884957028</v>
       </c>
       <c r="L19">
-        <f>A19/$A$2</f>
+        <f t="shared" si="3"/>
         <v>2.6216944424785109</v>
       </c>
       <c r="O19">
         <v>4900</v>
       </c>
       <c r="P19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4100</v>
       </c>
       <c r="Q19">
         <v>0.35</v>
       </c>
       <c r="R19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1435</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5549.253236579515</v>
       </c>
       <c r="B20">
         <v>19</v>
       </c>
       <c r="H20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>292.06595981997447</v>
       </c>
       <c r="I20">
@@ -1199,34 +1200,34 @@
         <v>55.492532365794943</v>
       </c>
       <c r="L20">
-        <f>A20/$A$2</f>
+        <f t="shared" si="3"/>
         <v>2.7746266182897577</v>
       </c>
       <c r="O20">
         <v>5200</v>
       </c>
       <c r="P20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4400</v>
       </c>
       <c r="Q20">
         <v>0.35</v>
       </c>
       <c r="R20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1540</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>5872.9596753799869</v>
       </c>
       <c r="B21">
         <v>20</v>
       </c>
       <c r="H21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>293.64798376899932</v>
       </c>
       <c r="I21">
@@ -1238,34 +1239,34 @@
         <v>58.729596753800024</v>
       </c>
       <c r="L21">
-        <f>A21/$A$2</f>
+        <f t="shared" si="3"/>
         <v>2.9364798376899937</v>
       </c>
       <c r="O21">
         <v>5200</v>
       </c>
       <c r="P21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4400</v>
       </c>
       <c r="Q21">
         <v>0.35</v>
       </c>
       <c r="R21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1540</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6215.5489897771531</v>
       </c>
       <c r="B22">
         <v>21</v>
       </c>
       <c r="H22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>295.97852332272157</v>
       </c>
       <c r="I22">
@@ -1277,34 +1278,34 @@
         <v>62.155489897771076</v>
       </c>
       <c r="L22">
-        <f>A22/$A$2</f>
+        <f t="shared" si="3"/>
         <v>3.1077744948885764</v>
       </c>
       <c r="O22">
         <v>3800</v>
       </c>
       <c r="P22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3000</v>
       </c>
       <c r="Q22">
         <v>0.35</v>
       </c>
       <c r="R22">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1050</v>
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6578.1226808474867</v>
       </c>
       <c r="B23">
         <v>22</v>
       </c>
       <c r="H23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>299.00557640215851</v>
       </c>
       <c r="I23">
@@ -1316,34 +1317,34 @@
         <v>65.781226808474685</v>
       </c>
       <c r="L23">
-        <f>A23/$A$2</f>
+        <f t="shared" si="3"/>
         <v>3.2890613404237432</v>
       </c>
       <c r="O23">
         <v>4900</v>
       </c>
       <c r="P23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4100</v>
       </c>
       <c r="Q23">
         <v>0.35</v>
       </c>
       <c r="R23">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1435</v>
       </c>
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>6961.8465038969234</v>
       </c>
       <c r="B24">
         <v>23</v>
       </c>
       <c r="H24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>302.68897843030101</v>
       </c>
       <c r="I24">
@@ -1355,34 +1356,34 @@
         <v>69.618465038969532</v>
       </c>
       <c r="L24">
-        <f>A24/$A$2</f>
+        <f t="shared" si="3"/>
         <v>3.4809232519484619</v>
       </c>
       <c r="O24">
         <v>5200</v>
       </c>
       <c r="P24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4400</v>
       </c>
       <c r="Q24">
         <v>0.35</v>
       </c>
       <c r="R24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1540</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7367.9542166242436</v>
       </c>
       <c r="B25">
         <v>24</v>
       </c>
       <c r="H25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>306.9980923593435</v>
       </c>
       <c r="I25">
@@ -1394,34 +1395,34 @@
         <v>73.679542166242754</v>
       </c>
       <c r="L25">
-        <f>A25/$A$2</f>
+        <f t="shared" si="3"/>
         <v>3.683977108312122</v>
       </c>
       <c r="O25">
         <v>5200</v>
       </c>
       <c r="P25">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4400</v>
       </c>
       <c r="Q25">
         <v>0.35</v>
       </c>
       <c r="R25">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1540</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>7797.7515459273245</v>
       </c>
       <c r="B26">
         <v>25</v>
       </c>
       <c r="H26">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>311.910061837093</v>
       </c>
       <c r="I26">
@@ -1433,34 +1434,34 @@
         <v>77.977515459272695</v>
       </c>
       <c r="L26">
-        <f>A26/$A$2</f>
+        <f t="shared" si="3"/>
         <v>3.8988757729636623</v>
       </c>
       <c r="O26">
         <v>3800</v>
       </c>
       <c r="P26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>3000</v>
       </c>
       <c r="Q26">
         <v>0.35</v>
       </c>
       <c r="R26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1050</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8252.6203861064187</v>
       </c>
       <c r="B27">
         <v>26</v>
       </c>
       <c r="H27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>317.40847638870844</v>
       </c>
       <c r="I27">
@@ -1472,34 +1473,34 @@
         <v>82.526203861064459</v>
       </c>
       <c r="L27">
-        <f>A27/$A$2</f>
+        <f t="shared" si="3"/>
         <v>4.1263101930532091</v>
       </c>
       <c r="O27">
         <v>4900</v>
       </c>
       <c r="P27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4100</v>
       </c>
       <c r="Q27">
         <v>0.35</v>
       </c>
       <c r="R27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1435</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>8734.0232419626263</v>
       </c>
       <c r="B28">
         <v>27</v>
       </c>
       <c r="H28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>323.48234229491209</v>
       </c>
       <c r="I28">
@@ -1511,34 +1512,34 @@
         <v>87.340232419627</v>
       </c>
       <c r="L28">
-        <f>A28/$A$2</f>
+        <f t="shared" si="3"/>
         <v>4.3670116209813132</v>
       </c>
       <c r="O28">
         <v>5200</v>
       </c>
       <c r="P28">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4400</v>
       </c>
       <c r="Q28">
         <v>0.35</v>
       </c>
       <c r="R28">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1540</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>9243.5079310771125</v>
       </c>
       <c r="B29">
         <v>28</v>
       </c>
       <c r="H29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>330.125283252754</v>
       </c>
       <c r="I29">
@@ -1550,21 +1551,21 @@
         <v>92.435079310771471</v>
       </c>
       <c r="L29">
-        <f>A29/$A$2</f>
+        <f t="shared" si="3"/>
         <v>4.6217539655385567</v>
       </c>
       <c r="O29">
         <v>5200</v>
       </c>
       <c r="P29">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>4400</v>
       </c>
       <c r="Q29">
         <v>0.35</v>
       </c>
       <c r="R29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1540</v>
       </c>
     </row>
